--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-0.1/percents/scores-10.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-0.1/percents/scores-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="64">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,52 +49,31 @@
     <t>terrifying</t>
   </si>
   <si>
+    <t>hate</t>
+  </si>
+  <si>
     <t>scary</t>
   </si>
   <si>
     <t>boring</t>
   </si>
   <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>hate</t>
-  </si>
-  <si>
     <t>dark</t>
   </si>
   <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>annoying</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>frustrating</t>
-  </si>
-  <si>
-    <t>vicious</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>harmful</t>
-  </si>
-  <si>
-    <t>rarely</t>
-  </si>
-  <si>
-    <t>dangerously</t>
+    <t>destroying</t>
   </si>
   <si>
     <t>creepy</t>
@@ -103,16 +82,10 @@
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>confused</t>
-  </si>
-  <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>terribly</t>
-  </si>
-  <si>
-    <t>racist</t>
+    <t>fucking</t>
   </si>
   <si>
     <t>insane</t>
@@ -124,7 +97,10 @@
     <t>dangerous</t>
   </si>
   <si>
-    <t>harsh</t>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>[UNK]</t>
   </si>
   <si>
     <t>0.95-negative</t>
@@ -133,91 +109,82 @@
     <t>good</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>best</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>brilliant</t>
   </si>
   <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>relevant</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>love</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>timely</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>decent</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>fascinating</t>
-  </si>
-  <si>
-    <t>accurate</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>opt</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>documentary</t>
+    <t>media</t>
   </si>
   <si>
     <t>0.95-positive</t>
@@ -596,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS32"/>
+  <dimension ref="A1:BS29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,28 +571,28 @@
   <sheetData>
     <row r="1" spans="1:71">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="S1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="AB1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="AK1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="AT1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="BC1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="BL1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -827,13 +794,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01786102480942759</v>
+        <v>0.01881187014429949</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -845,19 +812,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K3">
-        <v>0.01110443516622177</v>
+        <v>0.01041387806220522</v>
       </c>
       <c r="L3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -869,19 +836,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="T3">
-        <v>0.02114560032885746</v>
+        <v>0.02229629734851268</v>
       </c>
       <c r="U3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -893,19 +860,19 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AC3">
-        <v>0.01299341686287496</v>
+        <v>0.1289166020153222</v>
       </c>
       <c r="AD3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -917,19 +884,19 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AL3">
-        <v>0.0259461337803319</v>
+        <v>0.2484539194156976</v>
       </c>
       <c r="AM3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -941,19 +908,19 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AU3">
-        <v>0.09625661576138596</v>
+        <v>0.1018407214082665</v>
       </c>
       <c r="AV3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX3">
         <v>1</v>
@@ -965,19 +932,19 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BD3">
-        <v>0.03362698730269099</v>
+        <v>0.2170622264092407</v>
       </c>
       <c r="BE3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BF3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BG3">
         <v>0</v>
@@ -989,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="BM3">
-        <v>0.07768180242961176</v>
+        <v>0.0829838812116836</v>
       </c>
       <c r="BN3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BO3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BP3">
         <v>1</v>
@@ -1013,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -1021,13 +988,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01563216083879521</v>
+        <v>0.01504108659586343</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1039,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K4">
-        <v>0.01037859374977056</v>
+        <v>0.009719800255253553</v>
       </c>
       <c r="L4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1063,19 +1030,19 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T4">
-        <v>0.01852027990784411</v>
+        <v>0.01779709266082338</v>
       </c>
       <c r="U4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1087,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="AC4">
-        <v>0.01219584681317695</v>
+        <v>0.1222432120373412</v>
       </c>
       <c r="AD4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF4">
         <v>1</v>
@@ -1111,19 +1078,19 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AL4">
-        <v>0.02274137700876174</v>
+        <v>0.1986735744448168</v>
       </c>
       <c r="AM4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -1135,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="AU4">
-        <v>0.09141384838180498</v>
+        <v>0.09857177461355679</v>
       </c>
       <c r="AV4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX4">
         <v>1</v>
@@ -1159,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BC4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD4">
-        <v>0.02949513237022994</v>
+        <v>0.1749628275995142</v>
       </c>
       <c r="BE4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BF4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BG4">
         <v>0</v>
@@ -1183,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="BJ4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="BM4">
-        <v>0.07456215831374666</v>
+        <v>0.08168394873543391</v>
       </c>
       <c r="BN4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BO4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BP4">
         <v>1</v>
@@ -1207,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:71">
@@ -1215,7 +1182,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.00371276574809606</v>
+        <v>0.003752763149344285</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1236,10 +1203,10 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="K5">
-        <v>0.009664797551066775</v>
+        <v>0.009707786655859038</v>
       </c>
       <c r="L5">
         <v>12</v>
@@ -1257,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T5">
-        <v>0.004365998237638873</v>
+        <v>0.00441360779200338</v>
       </c>
       <c r="U5">
         <v>4</v>
@@ -1284,10 +1251,10 @@
         <v>1</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AC5">
-        <v>0.0114554915477792</v>
+        <v>0.121640299416606</v>
       </c>
       <c r="AD5">
         <v>12</v>
@@ -1305,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AL5">
-        <v>0.005320722645432216</v>
+        <v>0.05153189914230367</v>
       </c>
       <c r="AM5">
         <v>4</v>
@@ -1332,10 +1299,10 @@
         <v>1</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AU5">
-        <v>0.08723240676508549</v>
+        <v>0.09782821274838292</v>
       </c>
       <c r="AV5">
         <v>12</v>
@@ -1353,13 +1320,13 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="BD5">
-        <v>0.006848281697901565</v>
+        <v>0.05130926302169052</v>
       </c>
       <c r="BE5">
         <v>4</v>
@@ -1380,10 +1347,10 @@
         <v>1</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="BM5">
-        <v>0.07210967907719074</v>
+        <v>0.08093142662307706</v>
       </c>
       <c r="BN5">
         <v>12</v>
@@ -1401,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -1409,7 +1376,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.003700720530348635</v>
+        <v>0.003746756349647028</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1427,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="K6">
-        <v>0.008902820481373294</v>
+        <v>0.008929613653145766</v>
       </c>
       <c r="L6">
         <v>11</v>
@@ -1451,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T6">
-        <v>0.00430878345333861</v>
+        <v>0.004385075493441408</v>
       </c>
       <c r="U6">
         <v>4</v>
@@ -1475,13 +1442,13 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="AC6">
-        <v>0.01048627714518039</v>
+        <v>0.1107465210934787</v>
       </c>
       <c r="AD6">
         <v>11</v>
@@ -1499,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AL6">
-        <v>0.005197490802323956</v>
+        <v>0.05098205923977131</v>
       </c>
       <c r="AM6">
         <v>4</v>
@@ -1523,13 +1490,13 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="AU6">
-        <v>0.08040566209692013</v>
+        <v>0.08935433289745616</v>
       </c>
       <c r="AV6">
         <v>11</v>
@@ -1547,13 +1514,13 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BC6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="BD6">
-        <v>0.006619422560700513</v>
+        <v>0.05064810505885158</v>
       </c>
       <c r="BE6">
         <v>4</v>
@@ -1571,13 +1538,13 @@
         <v>0</v>
       </c>
       <c r="BJ6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="BM6">
-        <v>0.06698854032339815</v>
+        <v>0.07436383936032946</v>
       </c>
       <c r="BN6">
         <v>11</v>
@@ -1595,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1603,37 +1570,37 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.002973826163801075</v>
+        <v>0.003740749549949771</v>
       </c>
       <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>3</v>
       </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K7">
-        <v>0.004457432849560359</v>
+        <v>0.005230966229891641</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1651,37 +1618,37 @@
         <v>12</v>
       </c>
       <c r="T7">
-        <v>0.003509963025401177</v>
+        <v>0.004356543194879436</v>
       </c>
       <c r="U7">
+        <v>4</v>
+      </c>
+      <c r="V7">
+        <v>4</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z7">
         <v>3</v>
       </c>
-      <c r="V7">
-        <v>3</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>1</v>
-      </c>
-      <c r="Y7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
       <c r="AB7" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AC7">
-        <v>0.005271745964740327</v>
+        <v>0.065924231409605</v>
       </c>
       <c r="AD7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF7">
         <v>1</v>
@@ -1699,37 +1666,37 @@
         <v>12</v>
       </c>
       <c r="AL7">
-        <v>0.004293547669278251</v>
+        <v>0.05043221933723895</v>
       </c>
       <c r="AM7">
+        <v>4</v>
+      </c>
+      <c r="AN7">
+        <v>4</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>1</v>
+      </c>
+      <c r="AQ7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR7">
         <v>3</v>
       </c>
-      <c r="AN7">
-        <v>3</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>1</v>
-      </c>
-      <c r="AQ7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
       <c r="AT7" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AU7">
-        <v>0.04638911459797336</v>
+        <v>0.05888192348560423</v>
       </c>
       <c r="AV7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX7">
         <v>1</v>
@@ -1747,37 +1714,37 @@
         <v>12</v>
       </c>
       <c r="BD7">
-        <v>0.005547283099481569</v>
+        <v>0.04998694709601263</v>
       </c>
       <c r="BE7">
+        <v>4</v>
+      </c>
+      <c r="BF7">
+        <v>4</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>1</v>
+      </c>
+      <c r="BI7" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
         <v>3</v>
       </c>
-      <c r="BF7">
-        <v>3</v>
-      </c>
-      <c r="BG7">
-        <v>0</v>
-      </c>
-      <c r="BH7">
-        <v>1</v>
-      </c>
-      <c r="BI7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ7">
-        <v>0</v>
-      </c>
       <c r="BL7" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="BM7">
-        <v>0.04326693903338889</v>
+        <v>0.05356625684430093</v>
       </c>
       <c r="BN7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BO7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP7">
         <v>1</v>
@@ -1797,7 +1764,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.002967803554927363</v>
+        <v>0.003005814599293783</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1815,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K8">
-        <v>0.004451410240686647</v>
+        <v>0.004482827225664655</v>
       </c>
       <c r="L8">
         <v>5</v>
@@ -1839,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="T8">
-        <v>0.003481355633251046</v>
+        <v>0.003548005612739887</v>
       </c>
       <c r="U8">
         <v>3</v>
@@ -1863,13 +1830,13 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AC8">
-        <v>0.005243138572590196</v>
+        <v>0.05653773463831564</v>
       </c>
       <c r="AD8">
         <v>5</v>
@@ -1887,13 +1854,13 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="AL8">
-        <v>0.004231931747724122</v>
+        <v>0.04223563803116635</v>
       </c>
       <c r="AM8">
         <v>3</v>
@@ -1911,13 +1878,13 @@
         <v>0</v>
       </c>
       <c r="AR8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AU8">
-        <v>0.04605845171654263</v>
+        <v>0.05226694829761214</v>
       </c>
       <c r="AV8">
         <v>5</v>
@@ -1935,13 +1902,13 @@
         <v>0</v>
       </c>
       <c r="BA8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="BD8">
-        <v>0.005432853530881042</v>
+        <v>0.04368277281515196</v>
       </c>
       <c r="BE8">
         <v>3</v>
@@ -1959,13 +1926,13 @@
         <v>0</v>
       </c>
       <c r="BJ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="BM8">
-        <v>0.04293335659373431</v>
+        <v>0.04887997486244543</v>
       </c>
       <c r="BN8">
         <v>5</v>
@@ -1983,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="BS8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:71">
@@ -1991,13 +1958,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.002955758337179939</v>
+        <v>0.002252859249546023</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2009,13 +1976,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K9">
-        <v>0.003713523606488014</v>
+        <v>0.00373468822143767</v>
       </c>
       <c r="L9">
         <v>4</v>
@@ -2039,13 +2006,13 @@
         <v>14</v>
       </c>
       <c r="T9">
-        <v>0.003424140848950783</v>
+        <v>0.002653871134914422</v>
       </c>
       <c r="U9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -2057,13 +2024,13 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AC9">
-        <v>0.004388353738591918</v>
+        <v>0.04715123786702628</v>
       </c>
       <c r="AD9">
         <v>4</v>
@@ -2087,13 +2054,13 @@
         <v>14</v>
       </c>
       <c r="AL9">
-        <v>0.004108699904615862</v>
+        <v>0.03238953701749665</v>
       </c>
       <c r="AM9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO9">
         <v>0</v>
@@ -2105,13 +2072,13 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AU9">
-        <v>0.0405543585741002</v>
+        <v>0.04565197310962004</v>
       </c>
       <c r="AV9">
         <v>4</v>
@@ -2135,13 +2102,13 @@
         <v>14</v>
       </c>
       <c r="BD9">
-        <v>0.00520399439367999</v>
+        <v>0.03539512464577445</v>
       </c>
       <c r="BE9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG9">
         <v>0</v>
@@ -2153,13 +2120,13 @@
         <v>0</v>
       </c>
       <c r="BJ9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="BM9">
-        <v>0.03914654759856006</v>
+        <v>0.04419369288058993</v>
       </c>
       <c r="BN9">
         <v>4</v>
@@ -2185,13 +2152,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.002937690510558804</v>
+        <v>0.002252859249546023</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2203,13 +2170,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="K10">
-        <v>0.002963591754541957</v>
+        <v>0.002355835248998667</v>
       </c>
       <c r="L10">
         <v>3</v>
@@ -2227,19 +2194,19 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="T10">
-        <v>0.003338318672500389</v>
+        <v>0.002653871134914422</v>
       </c>
       <c r="U10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -2251,19 +2218,19 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AC10">
-        <v>0.003476354120293376</v>
+        <v>0.02777533170371237</v>
       </c>
       <c r="AD10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -2275,19 +2242,19 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AL10">
-        <v>0.003923852139953474</v>
+        <v>0.03238953701749665</v>
       </c>
       <c r="AM10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -2299,19 +2266,19 @@
         <v>0</v>
       </c>
       <c r="AR10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AU10">
-        <v>0.03438893966879631</v>
+        <v>0.031678460868462</v>
       </c>
       <c r="AV10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX10">
         <v>1</v>
@@ -2323,19 +2290,19 @@
         <v>0</v>
       </c>
       <c r="BA10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="BD10">
-        <v>0.00486070568787841</v>
+        <v>0.03539512464577445</v>
       </c>
       <c r="BE10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG10">
         <v>0</v>
@@ -2347,19 +2314,19 @@
         <v>0</v>
       </c>
       <c r="BJ10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="BM10">
-        <v>0.03469257372407664</v>
+        <v>0.03406860680452208</v>
       </c>
       <c r="BN10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BO10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BP10">
         <v>1</v>
@@ -2371,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="BS10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:71">
@@ -2379,7 +2346,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.002228863970632378</v>
+        <v>0.002252859249546023</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2400,16 +2367,16 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="K11">
-        <v>0.002337240431675917</v>
+        <v>0.002226396613589184</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -2421,13 +2388,13 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>105</v>
+        <v>2</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="T11">
-        <v>0.00262532042101335</v>
+        <v>0.002653871134914422</v>
       </c>
       <c r="U11">
         <v>2</v>
@@ -2448,10 +2415,10 @@
         <v>0</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AC11">
-        <v>0.002621569286295098</v>
+        <v>0.02777533170371237</v>
       </c>
       <c r="AD11">
         <v>2</v>
@@ -2469,13 +2436,13 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AL11">
-        <v>0.003204756771570156</v>
+        <v>0.03238953701749665</v>
       </c>
       <c r="AM11">
         <v>2</v>
@@ -2496,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AU11">
-        <v>0.02888484652635388</v>
+        <v>0.031678460868462</v>
       </c>
       <c r="AV11">
         <v>2</v>
@@ -2517,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="BA11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="BD11">
-        <v>0.004131854932461045</v>
+        <v>0.03539512464577445</v>
       </c>
       <c r="BE11">
         <v>2</v>
@@ -2544,10 +2511,10 @@
         <v>0</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="BM11">
-        <v>0.03090576472890239</v>
+        <v>0.03406860680452208</v>
       </c>
       <c r="BN11">
         <v>2</v>
@@ -2565,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="BS11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:71">
@@ -2573,7 +2540,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.002228863970632378</v>
+        <v>0.002240845650151508</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2591,13 +2558,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="K12">
-        <v>0.002225705120343324</v>
+        <v>0.002226396613589184</v>
       </c>
       <c r="L12">
         <v>2</v>
@@ -2615,13 +2582,13 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="T12">
-        <v>0.00262532042101335</v>
+        <v>0.002596806537790478</v>
       </c>
       <c r="U12">
         <v>2</v>
@@ -2639,19 +2606,19 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AC12">
-        <v>0.002621569286295098</v>
+        <v>0.01899174755315819</v>
       </c>
       <c r="AD12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF12">
         <v>1</v>
@@ -2669,7 +2636,7 @@
         <v>17</v>
       </c>
       <c r="AL12">
-        <v>0.003204756771570156</v>
+        <v>0.03128985721243192</v>
       </c>
       <c r="AM12">
         <v>2</v>
@@ -2687,19 +2654,19 @@
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AU12">
-        <v>0.02888484652635388</v>
+        <v>0.02580704754564377</v>
       </c>
       <c r="AV12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX12">
         <v>1</v>
@@ -2717,7 +2684,7 @@
         <v>17</v>
       </c>
       <c r="BD12">
-        <v>0.004131854932461045</v>
+        <v>0.03407280872009655</v>
       </c>
       <c r="BE12">
         <v>2</v>
@@ -2735,19 +2702,19 @@
         <v>0</v>
       </c>
       <c r="BJ12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="BM12">
-        <v>0.03090576472890239</v>
+        <v>0.03013484693502343</v>
       </c>
       <c r="BN12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP12">
         <v>1</v>
@@ -2767,7 +2734,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.002228863970632378</v>
+        <v>0.002210811651665222</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2785,19 +2752,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K13">
-        <v>0.002225705120343324</v>
+        <v>0.001490271208756713</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -2815,7 +2782,7 @@
         <v>18</v>
       </c>
       <c r="T13">
-        <v>0.00262532042101335</v>
+        <v>0.002454145044980617</v>
       </c>
       <c r="U13">
         <v>2</v>
@@ -2833,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AC13">
-        <v>0.002564354501994834</v>
+        <v>0.01899174755315819</v>
       </c>
       <c r="AD13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF13">
         <v>1</v>
@@ -2857,13 +2824,13 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AL13">
-        <v>0.003204756771570156</v>
+        <v>0.0285406576997701</v>
       </c>
       <c r="AM13">
         <v>2</v>
@@ -2881,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AU13">
-        <v>0.02822352076349242</v>
+        <v>0.02580704754564377</v>
       </c>
       <c r="AV13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX13">
         <v>1</v>
@@ -2905,13 +2872,13 @@
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="BD13">
-        <v>0.004131854932461045</v>
+        <v>0.03076701890590181</v>
       </c>
       <c r="BE13">
         <v>2</v>
@@ -2929,19 +2896,19 @@
         <v>0</v>
       </c>
       <c r="BJ13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="BM13">
-        <v>0.03023859984959322</v>
+        <v>0.03013484693502343</v>
       </c>
       <c r="BN13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP13">
         <v>1</v>
@@ -2953,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="BS13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:71">
@@ -2961,13 +2928,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.002228863970632378</v>
+        <v>0.001499903899798263</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2982,16 +2949,16 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="K14">
-        <v>0.0022136599025959</v>
+        <v>0.001490271208756713</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -3003,19 +2970,19 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="T14">
-        <v>0.00262532042101335</v>
+        <v>0.001759736657088958</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -3030,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AC14">
-        <v>0.002221065796193255</v>
+        <v>0.01899174755315819</v>
       </c>
       <c r="AD14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF14">
         <v>1</v>
@@ -3051,19 +3018,19 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AK14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AL14">
-        <v>0.003204756771570156</v>
+        <v>0.02254343600382696</v>
       </c>
       <c r="AM14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -3078,16 +3045,16 @@
         <v>0</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AU14">
-        <v>0.02425556618632361</v>
+        <v>0.02580704754564377</v>
       </c>
       <c r="AV14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX14">
         <v>1</v>
@@ -3099,19 +3066,19 @@
         <v>0</v>
       </c>
       <c r="BA14">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="BC14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="BD14">
-        <v>0.004131854932461045</v>
+        <v>0.02710747647639694</v>
       </c>
       <c r="BE14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG14">
         <v>0</v>
@@ -3126,10 +3093,10 @@
         <v>0</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="BM14">
-        <v>0.02678537329407355</v>
+        <v>0.03013484693502343</v>
       </c>
       <c r="BN14">
         <v>1</v>
@@ -3155,13 +3122,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.002228863970632378</v>
+        <v>0.001499903899798263</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3176,16 +3143,16 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K15">
-        <v>0.002141388596111357</v>
+        <v>0.001490271208756713</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -3197,19 +3164,19 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="T15">
-        <v>0.00262532042101335</v>
+        <v>0.001759736657088958</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -3224,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AC15">
-        <v>0.001738177060146688</v>
+        <v>0.01899174755315819</v>
       </c>
       <c r="AD15">
         <v>1</v>
@@ -3251,13 +3218,13 @@
         <v>20</v>
       </c>
       <c r="AL15">
-        <v>0.003204756771570156</v>
+        <v>0.02254343600382696</v>
       </c>
       <c r="AM15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -3272,10 +3239,10 @@
         <v>0</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AU15">
-        <v>0.02305009050248073</v>
+        <v>0.02580704754564377</v>
       </c>
       <c r="AV15">
         <v>1</v>
@@ -3299,13 +3266,13 @@
         <v>20</v>
       </c>
       <c r="BD15">
-        <v>0.004131854932461045</v>
+        <v>0.02710747647639694</v>
       </c>
       <c r="BE15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG15">
         <v>0</v>
@@ -3320,10 +3287,10 @@
         <v>0</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="BM15">
-        <v>0.02678537329407355</v>
+        <v>0.03013484693502343</v>
       </c>
       <c r="BN15">
         <v>1</v>
@@ -3349,13 +3316,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.002228863970632378</v>
+        <v>0.001499903899798263</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3370,10 +3337,10 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="K16">
-        <v>0.001481795877270978</v>
+        <v>0.001490271208756713</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -3397,13 +3364,13 @@
         <v>21</v>
       </c>
       <c r="T16">
-        <v>0.00262532042101335</v>
+        <v>0.001759736657088958</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -3418,10 +3385,10 @@
         <v>0</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AC16">
-        <v>0.001738177060146688</v>
+        <v>0.0186902912427906</v>
       </c>
       <c r="AD16">
         <v>1</v>
@@ -3439,19 +3406,19 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AL16">
-        <v>0.003204756771570156</v>
+        <v>0.02254343600382696</v>
       </c>
       <c r="AM16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -3466,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AU16">
-        <v>0.02305009050248073</v>
+        <v>0.02543526661305683</v>
       </c>
       <c r="AV16">
         <v>1</v>
@@ -3487,19 +3454,19 @@
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="BD16">
-        <v>0.004131854932461045</v>
+        <v>0.02710747647639694</v>
       </c>
       <c r="BE16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG16">
         <v>0</v>
@@ -3514,10 +3481,10 @@
         <v>0</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BM16">
-        <v>0.02678537329407355</v>
+        <v>0.02975858587884501</v>
       </c>
       <c r="BN16">
         <v>1</v>
@@ -3535,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:71">
@@ -3543,13 +3510,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.002228863970632378</v>
+        <v>0.001499903899798263</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3564,10 +3531,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="K17">
-        <v>0.001481795877270978</v>
+        <v>0.001484264409059456</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -3585,19 +3552,19 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="T17">
-        <v>0.00262532042101335</v>
+        <v>0.001759736657088958</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -3612,10 +3579,10 @@
         <v>0</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AC17">
-        <v>0.001738177060146688</v>
+        <v>0.0186902912427906</v>
       </c>
       <c r="AD17">
         <v>1</v>
@@ -3633,19 +3600,19 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AL17">
-        <v>0.003204756771570156</v>
+        <v>0.02254343600382696</v>
       </c>
       <c r="AM17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -3660,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AU17">
-        <v>0.02305009050248073</v>
+        <v>0.02543526661305683</v>
       </c>
       <c r="AV17">
         <v>1</v>
@@ -3681,19 +3648,19 @@
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="BD17">
-        <v>0.004131854932461045</v>
+        <v>0.02710747647639694</v>
       </c>
       <c r="BE17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG17">
         <v>0</v>
@@ -3708,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="BM17">
-        <v>0.02678537329407355</v>
+        <v>0.02975858587884501</v>
       </c>
       <c r="BN17">
         <v>1</v>
@@ -3729,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="BS17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:71">
@@ -3737,13 +3704,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.002228863970632378</v>
+        <v>0.001499903899798263</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3758,10 +3725,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K18">
-        <v>0.001481795877270978</v>
+        <v>0.001484264409059456</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -3779,19 +3746,19 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="T18">
-        <v>0.00262532042101335</v>
+        <v>0.001759736657088958</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -3806,10 +3773,10 @@
         <v>0</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="AC18">
-        <v>0.001738177060146688</v>
+        <v>0.0186902912427906</v>
       </c>
       <c r="AD18">
         <v>1</v>
@@ -3827,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AL18">
-        <v>0.003204756771570156</v>
+        <v>0.02254343600382696</v>
       </c>
       <c r="AM18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -3854,10 +3821,10 @@
         <v>0</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="AU18">
-        <v>0.02305009050248073</v>
+        <v>0.02543526661305683</v>
       </c>
       <c r="AV18">
         <v>1</v>
@@ -3875,19 +3842,19 @@
         <v>0</v>
       </c>
       <c r="BA18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="BD18">
-        <v>0.004131854932461045</v>
+        <v>0.02710747647639694</v>
       </c>
       <c r="BE18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG18">
         <v>0</v>
@@ -3902,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="BM18">
-        <v>0.02678537329407355</v>
+        <v>0.02975858587884501</v>
       </c>
       <c r="BN18">
         <v>1</v>
@@ -3923,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="BS18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:71">
@@ -3931,13 +3898,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.002228863970632378</v>
+        <v>0.001499903899798263</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3952,10 +3919,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>0.001481795877270978</v>
+        <v>0.001484264409059456</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -3973,19 +3940,19 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="T19">
-        <v>0.00262532042101335</v>
+        <v>0.001759736657088958</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W19">
         <v>0</v>
@@ -4000,10 +3967,10 @@
         <v>0</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="AC19">
-        <v>0.001738177060146688</v>
+        <v>0.01838883493242301</v>
       </c>
       <c r="AD19">
         <v>1</v>
@@ -4021,19 +3988,19 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AL19">
-        <v>0.003204756771570156</v>
+        <v>0.02254343600382696</v>
       </c>
       <c r="AM19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO19">
         <v>0</v>
@@ -4048,10 +4015,10 @@
         <v>0</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="AU19">
-        <v>0.02305009050248073</v>
+        <v>0.0250634856804699</v>
       </c>
       <c r="AV19">
         <v>1</v>
@@ -4069,19 +4036,19 @@
         <v>0</v>
       </c>
       <c r="BA19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="BD19">
-        <v>0.004131854932461045</v>
+        <v>0.02710747647639694</v>
       </c>
       <c r="BE19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG19">
         <v>0</v>
@@ -4096,10 +4063,10 @@
         <v>0</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="BM19">
-        <v>0.02678537329407355</v>
+        <v>0.02938232482266659</v>
       </c>
       <c r="BN19">
         <v>1</v>
@@ -4117,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="BS19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:71">
@@ -4125,7 +4092,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001483901777463682</v>
+        <v>0.001493897100101005</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -4143,13 +4110,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>0.001481795877270978</v>
+        <v>0.001478257609362199</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -4167,13 +4134,13 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T20">
-        <v>0.001740677816625523</v>
+        <v>0.001731204358526986</v>
       </c>
       <c r="U20">
         <v>1</v>
@@ -4191,13 +4158,13 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="AC20">
-        <v>0.001738177060146688</v>
+        <v>0.01808737862205542</v>
       </c>
       <c r="AD20">
         <v>1</v>
@@ -4215,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AL20">
-        <v>0.002115965873862061</v>
+        <v>0.02199359610129459</v>
       </c>
       <c r="AM20">
         <v>1</v>
@@ -4239,13 +4206,13 @@
         <v>0</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="AU20">
-        <v>0.02305009050248073</v>
+        <v>0.02469170474788297</v>
       </c>
       <c r="AV20">
         <v>1</v>
@@ -4263,13 +4230,13 @@
         <v>0</v>
       </c>
       <c r="BA20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="BD20">
-        <v>0.002716426765440521</v>
+        <v>0.026446318513558</v>
       </c>
       <c r="BE20">
         <v>1</v>
@@ -4287,13 +4254,13 @@
         <v>0</v>
       </c>
       <c r="BJ20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="BM20">
-        <v>0.02678537329407355</v>
+        <v>0.02900606376648816</v>
       </c>
       <c r="BN20">
         <v>1</v>
@@ -4311,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="BS20">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:71">
@@ -4319,7 +4286,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.001483901777463682</v>
+        <v>0.001493897100101005</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4337,13 +4304,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="K21">
-        <v>0.001481795877270978</v>
+        <v>0.001472250809664942</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -4361,13 +4328,13 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="T21">
-        <v>0.001740677816625523</v>
+        <v>0.001731204358526986</v>
       </c>
       <c r="U21">
         <v>1</v>
@@ -4385,13 +4352,13 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AC21">
-        <v>0.001738177060146688</v>
+        <v>0.01778592231168783</v>
       </c>
       <c r="AD21">
         <v>1</v>
@@ -4409,13 +4376,13 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AL21">
-        <v>0.002115965873862061</v>
+        <v>0.02199359610129459</v>
       </c>
       <c r="AM21">
         <v>1</v>
@@ -4433,13 +4400,13 @@
         <v>0</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AU21">
-        <v>0.02305009050248073</v>
+        <v>0.02431992381529603</v>
       </c>
       <c r="AV21">
         <v>1</v>
@@ -4457,13 +4424,13 @@
         <v>0</v>
       </c>
       <c r="BA21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="BD21">
-        <v>0.002716426765440521</v>
+        <v>0.026446318513558</v>
       </c>
       <c r="BE21">
         <v>1</v>
@@ -4481,13 +4448,13 @@
         <v>0</v>
       </c>
       <c r="BJ21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="BM21">
-        <v>0.02678537329407355</v>
+        <v>0.02862980271030974</v>
       </c>
       <c r="BN21">
         <v>1</v>
@@ -4505,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="BS21">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:71">
@@ -4513,7 +4480,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.001483901777463682</v>
+        <v>0.001487890300403748</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -4531,13 +4498,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K22">
-        <v>0.001481795877270978</v>
+        <v>0.001466244009967684</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -4555,13 +4522,13 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T22">
-        <v>0.001740677816625523</v>
+        <v>0.001702672059965013</v>
       </c>
       <c r="U22">
         <v>1</v>
@@ -4579,13 +4546,13 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="AC22">
-        <v>0.001738177060146688</v>
+        <v>0.01778592231168783</v>
       </c>
       <c r="AD22">
         <v>1</v>
@@ -4603,13 +4570,13 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AL22">
-        <v>0.002115965873862061</v>
+        <v>0.02144375619876223</v>
       </c>
       <c r="AM22">
         <v>1</v>
@@ -4627,13 +4594,13 @@
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="AU22">
-        <v>0.02305009050248073</v>
+        <v>0.02431992381529603</v>
       </c>
       <c r="AV22">
         <v>1</v>
@@ -4651,13 +4618,13 @@
         <v>0</v>
       </c>
       <c r="BA22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="BD22">
-        <v>0.002716426765440521</v>
+        <v>0.02578516055071904</v>
       </c>
       <c r="BE22">
         <v>1</v>
@@ -4675,13 +4642,13 @@
         <v>0</v>
       </c>
       <c r="BJ22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="BM22">
-        <v>0.02678537329407355</v>
+        <v>0.02862980271030974</v>
       </c>
       <c r="BN22">
         <v>1</v>
@@ -4699,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="BS22">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:71">
@@ -4707,7 +4674,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.001483901777463682</v>
+        <v>0.001253625112210713</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4725,13 +4692,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="K23">
-        <v>0.001481795877270978</v>
+        <v>0.001466244009967684</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -4749,13 +4716,13 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="T23">
-        <v>0.001740677816625523</v>
+        <v>0.0005899124160480999</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -4773,13 +4740,13 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="AC23">
-        <v>0.001738177060146688</v>
+        <v>0.01778592231168783</v>
       </c>
       <c r="AD23">
         <v>1</v>
@@ -4797,13 +4764,13 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AL23">
-        <v>0.002115965873862061</v>
+        <v>0</v>
       </c>
       <c r="AM23">
         <v>1</v>
@@ -4821,13 +4788,13 @@
         <v>0</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="AU23">
-        <v>0.02305009050248073</v>
+        <v>0.02431992381529603</v>
       </c>
       <c r="AV23">
         <v>1</v>
@@ -4845,13 +4812,13 @@
         <v>0</v>
       </c>
       <c r="BA23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="BD23">
-        <v>0.002716426765440521</v>
+        <v>0</v>
       </c>
       <c r="BE23">
         <v>1</v>
@@ -4869,13 +4836,13 @@
         <v>0</v>
       </c>
       <c r="BJ23">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="BL23" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="BM23">
-        <v>0.02678537329407355</v>
+        <v>0.02862980271030974</v>
       </c>
       <c r="BN23">
         <v>1</v>
@@ -4893,39 +4860,15 @@
         <v>0</v>
       </c>
       <c r="BS23">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:71">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.001483901777463682</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
       <c r="J24" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K24">
-        <v>0.001481795877270978</v>
+        <v>0.001466244009967684</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -4943,37 +4886,13 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T24">
-        <v>0.001740677816625523</v>
-      </c>
-      <c r="U24">
-        <v>1</v>
-      </c>
-      <c r="V24">
-        <v>1</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>1</v>
-      </c>
-      <c r="Y24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="AC24">
-        <v>0.001738177060146688</v>
+        <v>0.01778592231168783</v>
       </c>
       <c r="AD24">
         <v>1</v>
@@ -4991,37 +4910,13 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>0</v>
-      </c>
-      <c r="AK24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL24">
-        <v>0.002115965873862061</v>
-      </c>
-      <c r="AM24">
-        <v>1</v>
-      </c>
-      <c r="AN24">
-        <v>1</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
-      <c r="AP24">
-        <v>1</v>
-      </c>
-      <c r="AQ24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="AU24">
-        <v>0.02305009050248073</v>
+        <v>0.02431992381529603</v>
       </c>
       <c r="AV24">
         <v>1</v>
@@ -5039,37 +4934,13 @@
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>0</v>
-      </c>
-      <c r="BC24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="BD24">
-        <v>0.002716426765440521</v>
-      </c>
-      <c r="BE24">
-        <v>1</v>
-      </c>
-      <c r="BF24">
-        <v>1</v>
-      </c>
-      <c r="BG24">
-        <v>0</v>
-      </c>
-      <c r="BH24">
-        <v>1</v>
-      </c>
-      <c r="BI24" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL24" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="BM24">
-        <v>0.02645179085441897</v>
+        <v>0.02862980271030974</v>
       </c>
       <c r="BN24">
         <v>1</v>
@@ -5087,39 +4958,15 @@
         <v>0</v>
       </c>
       <c r="BS24">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:71">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.001483901777463682</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
       <c r="J25" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K25">
-        <v>0.001481795877270978</v>
+        <v>0.001466244009967684</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -5137,37 +4984,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T25">
-        <v>0.001740677816625523</v>
-      </c>
-      <c r="U25">
-        <v>1</v>
-      </c>
-      <c r="V25">
-        <v>1</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>1</v>
-      </c>
-      <c r="Y25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="AC25">
-        <v>0.001709569667996556</v>
+        <v>0.0156757281391147</v>
       </c>
       <c r="AD25">
         <v>1</v>
@@ -5185,37 +5008,13 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>1</v>
-      </c>
-      <c r="AK25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL25">
-        <v>0.002115965873862061</v>
-      </c>
-      <c r="AM25">
-        <v>1</v>
-      </c>
-      <c r="AN25">
-        <v>1</v>
-      </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
-      <c r="AP25">
-        <v>1</v>
-      </c>
-      <c r="AQ25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR25">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="AU25">
-        <v>0.02271942762104999</v>
+        <v>0.0217174572871875</v>
       </c>
       <c r="AV25">
         <v>1</v>
@@ -5233,43 +5032,19 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>1</v>
-      </c>
-      <c r="BC25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="BD25">
-        <v>0.002716426765440521</v>
-      </c>
-      <c r="BE25">
-        <v>1</v>
-      </c>
-      <c r="BF25">
-        <v>1</v>
-      </c>
-      <c r="BG25">
-        <v>0</v>
-      </c>
-      <c r="BH25">
-        <v>1</v>
-      </c>
-      <c r="BI25" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ25">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BL25" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="BM25">
-        <v>0.02623561057373822</v>
+        <v>0.02599597531706078</v>
       </c>
       <c r="BN25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP25">
         <v>1</v>
@@ -5281,39 +5056,15 @@
         <v>0</v>
       </c>
       <c r="BS25">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:71">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.001483901777463682</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
       <c r="J26" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K26">
-        <v>0.001475773268397266</v>
+        <v>0.001424196412086883</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -5331,37 +5082,13 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>1</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T26">
-        <v>0.001740677816625523</v>
-      </c>
-      <c r="U26">
-        <v>1</v>
-      </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>1</v>
-      </c>
-      <c r="Y26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="AC26">
-        <v>0.001652354883696293</v>
+        <v>0.01537427182874711</v>
       </c>
       <c r="AD26">
         <v>1</v>
@@ -5379,37 +5106,13 @@
         <v>0</v>
       </c>
       <c r="AI26">
-        <v>3</v>
-      </c>
-      <c r="AK26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL26">
-        <v>0.002115965873862061</v>
-      </c>
-      <c r="AM26">
-        <v>1</v>
-      </c>
-      <c r="AN26">
-        <v>1</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <v>1</v>
-      </c>
-      <c r="AQ26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="AU26">
-        <v>0.02205810185818852</v>
+        <v>0.02134567635460057</v>
       </c>
       <c r="AV26">
         <v>1</v>
@@ -5427,37 +5130,13 @@
         <v>0</v>
       </c>
       <c r="BA26">
-        <v>3</v>
-      </c>
-      <c r="BC26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="BD26">
-        <v>0.002716426765440521</v>
-      </c>
-      <c r="BE26">
-        <v>1</v>
-      </c>
-      <c r="BF26">
-        <v>1</v>
-      </c>
-      <c r="BG26">
-        <v>0</v>
-      </c>
-      <c r="BH26">
-        <v>1</v>
-      </c>
-      <c r="BI26" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ26">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BL26" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="BM26">
-        <v>0.0257846259751098</v>
+        <v>0.02561971426088236</v>
       </c>
       <c r="BN26">
         <v>1</v>
@@ -5475,39 +5154,15 @@
         <v>0</v>
       </c>
       <c r="BS26">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:71">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.001483901777463682</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
       <c r="J27" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="K27">
-        <v>0.001463728050649843</v>
+        <v>0.001418189612389626</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -5525,37 +5180,13 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>3</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T27">
-        <v>0.001740677816625523</v>
-      </c>
-      <c r="U27">
-        <v>1</v>
-      </c>
-      <c r="V27">
-        <v>1</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>1</v>
-      </c>
-      <c r="Y27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="AC27">
-        <v>0.001623747491546162</v>
+        <v>0.01446990289764434</v>
       </c>
       <c r="AD27">
         <v>1</v>
@@ -5573,37 +5204,13 @@
         <v>0</v>
       </c>
       <c r="AI27">
-        <v>4</v>
-      </c>
-      <c r="AK27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL27">
-        <v>0.002115965873862061</v>
-      </c>
-      <c r="AM27">
-        <v>1</v>
-      </c>
-      <c r="AN27">
-        <v>1</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>1</v>
-      </c>
-      <c r="AQ27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AT27" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="AU27">
-        <v>0.02172743897675779</v>
+        <v>0.02023033355683977</v>
       </c>
       <c r="AV27">
         <v>1</v>
@@ -5621,37 +5228,13 @@
         <v>0</v>
       </c>
       <c r="BA27">
-        <v>4</v>
-      </c>
-      <c r="BC27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="BD27">
-        <v>0.002716426765440521</v>
-      </c>
-      <c r="BE27">
-        <v>1</v>
-      </c>
-      <c r="BF27">
-        <v>1</v>
-      </c>
-      <c r="BG27">
-        <v>0</v>
-      </c>
-      <c r="BH27">
-        <v>1</v>
-      </c>
-      <c r="BI27" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ27">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BL27" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="BM27">
-        <v>0.02545104353545522</v>
+        <v>0.02449093109234708</v>
       </c>
       <c r="BN27">
         <v>1</v>
@@ -5669,183 +5252,87 @@
         <v>0</v>
       </c>
       <c r="BS27">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:71">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.001483901777463682</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
       <c r="J28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K28">
+        <v>0.001400169213297854</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>15</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC28">
+        <v>0.00611182850713993</v>
+      </c>
+      <c r="AD28">
+        <v>3</v>
+      </c>
+      <c r="AE28">
+        <v>3</v>
+      </c>
+      <c r="AF28">
+        <v>1</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>105</v>
+      </c>
+      <c r="AT28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU28">
+        <v>0.002384848792666994</v>
+      </c>
+      <c r="AV28">
+        <v>1</v>
+      </c>
+      <c r="AW28">
+        <v>1</v>
+      </c>
+      <c r="AX28">
+        <v>1</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA28">
         <v>63</v>
       </c>
-      <c r="K28">
-        <v>0.001457705441776131</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>4</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T28">
-        <v>0.001740677816625523</v>
-      </c>
-      <c r="U28">
-        <v>1</v>
-      </c>
-      <c r="V28">
-        <v>1</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>1</v>
-      </c>
-      <c r="Y28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC28">
-        <v>0.001566532707245899</v>
-      </c>
-      <c r="AD28">
-        <v>1</v>
-      </c>
-      <c r="AE28">
-        <v>1</v>
-      </c>
-      <c r="AF28">
-        <v>1</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>6</v>
-      </c>
-      <c r="AK28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL28">
-        <v>0.002115965873862061</v>
-      </c>
-      <c r="AM28">
-        <v>1</v>
-      </c>
-      <c r="AN28">
-        <v>1</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>1</v>
-      </c>
-      <c r="AQ28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>0</v>
-      </c>
-      <c r="AT28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU28">
-        <v>0.02106611321389632</v>
-      </c>
-      <c r="AV28">
-        <v>1</v>
-      </c>
-      <c r="AW28">
-        <v>1</v>
-      </c>
-      <c r="AX28">
-        <v>1</v>
-      </c>
-      <c r="AY28">
-        <v>0</v>
-      </c>
-      <c r="AZ28" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA28">
-        <v>6</v>
-      </c>
-      <c r="BC28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="BD28">
-        <v>0.002716426765440521</v>
-      </c>
-      <c r="BE28">
-        <v>1</v>
-      </c>
-      <c r="BF28">
-        <v>1</v>
-      </c>
-      <c r="BG28">
-        <v>0</v>
-      </c>
-      <c r="BH28">
-        <v>1</v>
-      </c>
-      <c r="BI28" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ28">
-        <v>0</v>
-      </c>
       <c r="BL28" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="BM28">
-        <v>0.02478387865614605</v>
+        <v>0.006430400395782776</v>
       </c>
       <c r="BN28">
         <v>1</v>
@@ -5863,39 +5350,15 @@
         <v>0</v>
       </c>
       <c r="BS28">
-        <v>6</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:71">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.00147787916858997</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
       <c r="J29" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="K29">
-        <v>0.001445660224028707</v>
+        <v>0.001111842827829504</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -5913,37 +5376,13 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>6</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T29">
-        <v>0.001712070424475391</v>
-      </c>
-      <c r="U29">
-        <v>1</v>
-      </c>
-      <c r="V29">
-        <v>1</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>1</v>
-      </c>
-      <c r="Y29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="AC29">
-        <v>0.001423495746495241</v>
+        <v>0</v>
       </c>
       <c r="AD29">
         <v>1</v>
@@ -5961,43 +5400,19 @@
         <v>0</v>
       </c>
       <c r="AI29">
-        <v>11</v>
-      </c>
-      <c r="AK29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL29">
-        <v>0.002054349952307931</v>
-      </c>
-      <c r="AM29">
-        <v>1</v>
-      </c>
-      <c r="AN29">
-        <v>1</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>1</v>
-      </c>
-      <c r="AQ29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="AT29" s="1" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="AU29">
-        <v>0.01941279880674265</v>
+        <v>0</v>
       </c>
       <c r="AV29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX29">
         <v>1</v>
@@ -6009,43 +5424,19 @@
         <v>0</v>
       </c>
       <c r="BA29">
-        <v>11</v>
-      </c>
-      <c r="BC29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="BD29">
-        <v>0.002601997196839995</v>
-      </c>
-      <c r="BE29">
-        <v>1</v>
-      </c>
-      <c r="BF29">
-        <v>1</v>
-      </c>
-      <c r="BG29">
-        <v>0</v>
-      </c>
-      <c r="BH29">
-        <v>1</v>
-      </c>
-      <c r="BI29" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ29">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="BL29" s="1" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="BM29">
-        <v>0.02311596645787314</v>
+        <v>0</v>
       </c>
       <c r="BN29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BO29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BP29">
         <v>1</v>
@@ -6057,492 +5448,6 @@
         <v>0</v>
       </c>
       <c r="BS29">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:71">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.00147787916858997</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K30">
-        <v>0.001415547179660147</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>11</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T30">
-        <v>0.001712070424475391</v>
-      </c>
-      <c r="U30">
-        <v>1</v>
-      </c>
-      <c r="V30">
-        <v>1</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>1</v>
-      </c>
-      <c r="Y30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z30">
-        <v>1</v>
-      </c>
-      <c r="AB30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC30">
-        <v>0.001423495746495241</v>
-      </c>
-      <c r="AD30">
-        <v>1</v>
-      </c>
-      <c r="AE30">
-        <v>1</v>
-      </c>
-      <c r="AF30">
-        <v>1</v>
-      </c>
-      <c r="AG30">
-        <v>0</v>
-      </c>
-      <c r="AH30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI30">
-        <v>11</v>
-      </c>
-      <c r="AK30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL30">
-        <v>0.002054349952307931</v>
-      </c>
-      <c r="AM30">
-        <v>1</v>
-      </c>
-      <c r="AN30">
-        <v>1</v>
-      </c>
-      <c r="AO30">
-        <v>0</v>
-      </c>
-      <c r="AP30">
-        <v>1</v>
-      </c>
-      <c r="AQ30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR30">
-        <v>1</v>
-      </c>
-      <c r="AT30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU30">
-        <v>0.01941279880674265</v>
-      </c>
-      <c r="AV30">
-        <v>1</v>
-      </c>
-      <c r="AW30">
-        <v>1</v>
-      </c>
-      <c r="AX30">
-        <v>1</v>
-      </c>
-      <c r="AY30">
-        <v>0</v>
-      </c>
-      <c r="AZ30" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA30">
-        <v>11</v>
-      </c>
-      <c r="BC30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BD30">
-        <v>0.002601997196839995</v>
-      </c>
-      <c r="BE30">
-        <v>1</v>
-      </c>
-      <c r="BF30">
-        <v>1</v>
-      </c>
-      <c r="BG30">
-        <v>0</v>
-      </c>
-      <c r="BH30">
-        <v>1</v>
-      </c>
-      <c r="BI30" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ30">
-        <v>1</v>
-      </c>
-      <c r="BL30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM30">
-        <v>0.02311596645787314</v>
-      </c>
-      <c r="BN30">
-        <v>1</v>
-      </c>
-      <c r="BO30">
-        <v>1</v>
-      </c>
-      <c r="BP30">
-        <v>1</v>
-      </c>
-      <c r="BQ30">
-        <v>0</v>
-      </c>
-      <c r="BR30" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS30">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:71">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.00147787916858997</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K31">
-        <v>0.001415547179660147</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>11</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T31">
-        <v>0.001712070424475391</v>
-      </c>
-      <c r="U31">
-        <v>1</v>
-      </c>
-      <c r="V31">
-        <v>1</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>1</v>
-      </c>
-      <c r="Y31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z31">
-        <v>1</v>
-      </c>
-      <c r="AB31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC31">
-        <v>0.0006224887662915562</v>
-      </c>
-      <c r="AD31">
-        <v>1</v>
-      </c>
-      <c r="AE31">
-        <v>1</v>
-      </c>
-      <c r="AF31">
-        <v>1</v>
-      </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-      <c r="AH31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>39</v>
-      </c>
-      <c r="AK31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL31">
-        <v>0.002054349952307931</v>
-      </c>
-      <c r="AM31">
-        <v>1</v>
-      </c>
-      <c r="AN31">
-        <v>1</v>
-      </c>
-      <c r="AO31">
-        <v>0</v>
-      </c>
-      <c r="AP31">
-        <v>1</v>
-      </c>
-      <c r="AQ31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR31">
-        <v>1</v>
-      </c>
-      <c r="AT31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU31">
-        <v>0.01015423812668211</v>
-      </c>
-      <c r="AV31">
-        <v>1</v>
-      </c>
-      <c r="AW31">
-        <v>1</v>
-      </c>
-      <c r="AX31">
-        <v>1</v>
-      </c>
-      <c r="AY31">
-        <v>0</v>
-      </c>
-      <c r="AZ31" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA31">
-        <v>39</v>
-      </c>
-      <c r="BC31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD31">
-        <v>0.002601997196839995</v>
-      </c>
-      <c r="BE31">
-        <v>1</v>
-      </c>
-      <c r="BF31">
-        <v>1</v>
-      </c>
-      <c r="BG31">
-        <v>0</v>
-      </c>
-      <c r="BH31">
-        <v>1</v>
-      </c>
-      <c r="BI31" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ31">
-        <v>1</v>
-      </c>
-      <c r="BL31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM31">
-        <v>0.01377565814754481</v>
-      </c>
-      <c r="BN31">
-        <v>1</v>
-      </c>
-      <c r="BO31">
-        <v>1</v>
-      </c>
-      <c r="BP31">
-        <v>1</v>
-      </c>
-      <c r="BQ31">
-        <v>0</v>
-      </c>
-      <c r="BR31" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS31">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:71">
-      <c r="J32" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K32">
-        <v>0.001246914131196214</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>39</v>
-      </c>
-      <c r="AB32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC32">
-        <v>0.0005011853366796912</v>
-      </c>
-      <c r="AD32">
-        <v>3</v>
-      </c>
-      <c r="AE32">
-        <v>3</v>
-      </c>
-      <c r="AF32">
-        <v>1</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI32">
-        <v>105</v>
-      </c>
-      <c r="AT32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU32">
-        <v>0</v>
-      </c>
-      <c r="AV32">
-        <v>3</v>
-      </c>
-      <c r="AW32">
-        <v>3</v>
-      </c>
-      <c r="AX32">
-        <v>1</v>
-      </c>
-      <c r="AY32">
-        <v>0</v>
-      </c>
-      <c r="AZ32" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA32">
-        <v>105</v>
-      </c>
-      <c r="BL32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BM32">
-        <v>0</v>
-      </c>
-      <c r="BN32">
-        <v>3</v>
-      </c>
-      <c r="BO32">
-        <v>3</v>
-      </c>
-      <c r="BP32">
-        <v>1</v>
-      </c>
-      <c r="BQ32">
-        <v>0</v>
-      </c>
-      <c r="BR32" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS32">
         <v>105</v>
       </c>
     </row>
